--- a/PythonResources/Data/Consumption/Sympheny/post_1676_ele.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1676_ele.xlsx
@@ -23671,7 +23671,7 @@
         <v>2916</v>
       </c>
       <c r="B2916">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="2917" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23687,7 +23687,7 @@
         <v>2918</v>
       </c>
       <c r="B2918">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="2919" spans="1:2">
@@ -23695,7 +23695,7 @@
         <v>2919</v>
       </c>
       <c r="B2919">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="2920" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25231,7 +25231,7 @@
         <v>3111</v>
       </c>
       <c r="B3111">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3112" spans="1:2">
@@ -26359,7 +26359,7 @@
         <v>3252</v>
       </c>
       <c r="B3252">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3253" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26375,7 +26375,7 @@
         <v>3254</v>
       </c>
       <c r="B3254">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3255" spans="1:2">
@@ -26383,7 +26383,7 @@
         <v>3255</v>
       </c>
       <c r="B3255">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3256" spans="1:2">
@@ -26527,7 +26527,7 @@
         <v>3273</v>
       </c>
       <c r="B3273">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="3274" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26559,7 +26559,7 @@
         <v>3277</v>
       </c>
       <c r="B3277">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3278" spans="1:2">
@@ -26567,7 +26567,7 @@
         <v>3278</v>
       </c>
       <c r="B3278">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3279" spans="1:2">
@@ -26575,7 +26575,7 @@
         <v>3279</v>
       </c>
       <c r="B3279">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3280" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -27903,7 +27903,7 @@
         <v>3445</v>
       </c>
       <c r="B3445">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3446" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -28855,7 +28855,7 @@
         <v>3564</v>
       </c>
       <c r="B3564">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3565" spans="1:2">
@@ -28863,7 +28863,7 @@
         <v>3565</v>
       </c>
       <c r="B3565">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -28871,7 +28871,7 @@
         <v>3566</v>
       </c>
       <c r="B3566">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3567" spans="1:2">
@@ -28879,7 +28879,7 @@
         <v>3567</v>
       </c>
       <c r="B3567">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3568" spans="1:2">
@@ -29023,7 +29023,7 @@
         <v>3585</v>
       </c>
       <c r="B3585">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29055,7 +29055,7 @@
         <v>3589</v>
       </c>
       <c r="B3589">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29071,7 +29071,7 @@
         <v>3591</v>
       </c>
       <c r="B3591">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3592" spans="1:2">
@@ -29215,7 +29215,7 @@
         <v>3609</v>
       </c>
       <c r="B3609">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>3610</v>
       </c>
       <c r="B3610">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -29231,7 +29231,7 @@
         <v>3611</v>
       </c>
       <c r="B3611">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3612" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29247,7 +29247,7 @@
         <v>3613</v>
       </c>
       <c r="B3613">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29263,7 +29263,7 @@
         <v>3615</v>
       </c>
       <c r="B3615">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -29407,7 +29407,7 @@
         <v>3633</v>
       </c>
       <c r="B3633">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -29415,7 +29415,7 @@
         <v>3634</v>
       </c>
       <c r="B3634">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29423,7 +29423,7 @@
         <v>3635</v>
       </c>
       <c r="B3635">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -29431,7 +29431,7 @@
         <v>3636</v>
       </c>
       <c r="B3636">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -29439,7 +29439,7 @@
         <v>3637</v>
       </c>
       <c r="B3637">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -29447,7 +29447,7 @@
         <v>3638</v>
       </c>
       <c r="B3638">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3639" spans="1:2">
@@ -29455,7 +29455,7 @@
         <v>3639</v>
       </c>
       <c r="B3639">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3640" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -29991,7 +29991,7 @@
         <v>3706</v>
       </c>
       <c r="B3706">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -30007,7 +30007,7 @@
         <v>3708</v>
       </c>
       <c r="B3708">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3709" spans="1:2">
@@ -30015,7 +30015,7 @@
         <v>3709</v>
       </c>
       <c r="B3709">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -30023,7 +30023,7 @@
         <v>3710</v>
       </c>
       <c r="B3710">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
@@ -30031,7 +30031,7 @@
         <v>3711</v>
       </c>
       <c r="B3711">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -30199,7 +30199,7 @@
         <v>3732</v>
       </c>
       <c r="B3732">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30223,7 +30223,7 @@
         <v>3735</v>
       </c>
       <c r="B3735">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -30367,7 +30367,7 @@
         <v>3753</v>
       </c>
       <c r="B3753">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="3754" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30399,7 +30399,7 @@
         <v>3757</v>
       </c>
       <c r="B3757">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3758" spans="1:2">
@@ -30407,7 +30407,7 @@
         <v>3758</v>
       </c>
       <c r="B3758">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30559,7 +30559,7 @@
         <v>3777</v>
       </c>
       <c r="B3777">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="3778" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30591,7 +30591,7 @@
         <v>3781</v>
       </c>
       <c r="B3781">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -30599,7 +30599,7 @@
         <v>3782</v>
       </c>
       <c r="B3782">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -30607,7 +30607,7 @@
         <v>3783</v>
       </c>
       <c r="B3783">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3784" spans="1:2">
@@ -30751,7 +30751,7 @@
         <v>3801</v>
       </c>
       <c r="B3801">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="3802" spans="1:2">
@@ -30759,7 +30759,7 @@
         <v>3802</v>
       </c>
       <c r="B3802">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3803" spans="1:2">
@@ -30767,7 +30767,7 @@
         <v>3803</v>
       </c>
       <c r="B3803">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3804" spans="1:2">
@@ -30775,7 +30775,7 @@
         <v>3804</v>
       </c>
       <c r="B3804">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3805" spans="1:2">
@@ -30783,7 +30783,7 @@
         <v>3805</v>
       </c>
       <c r="B3805">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3806" spans="1:2">
@@ -30791,7 +30791,7 @@
         <v>3806</v>
       </c>
       <c r="B3806">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3807" spans="1:2">
@@ -30799,7 +30799,7 @@
         <v>3807</v>
       </c>
       <c r="B3807">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -31335,7 +31335,7 @@
         <v>3874</v>
       </c>
       <c r="B3874">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3875" spans="1:2">
@@ -31343,7 +31343,7 @@
         <v>3875</v>
       </c>
       <c r="B3875">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3876" spans="1:2">
@@ -31351,7 +31351,7 @@
         <v>3876</v>
       </c>
       <c r="B3876">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3877" spans="1:2">
@@ -31359,7 +31359,7 @@
         <v>3877</v>
       </c>
       <c r="B3877">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -31367,7 +31367,7 @@
         <v>3878</v>
       </c>
       <c r="B3878">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3879" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31559,7 +31559,7 @@
         <v>3902</v>
       </c>
       <c r="B3902">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3903" spans="1:2">
@@ -31567,7 +31567,7 @@
         <v>3903</v>
       </c>
       <c r="B3903">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3904" spans="1:2">
@@ -31711,7 +31711,7 @@
         <v>3921</v>
       </c>
       <c r="B3921">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="3922" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31743,7 +31743,7 @@
         <v>3925</v>
       </c>
       <c r="B3925">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3926" spans="1:2">
@@ -31751,7 +31751,7 @@
         <v>3926</v>
       </c>
       <c r="B3926">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3927" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31903,7 +31903,7 @@
         <v>3945</v>
       </c>
       <c r="B3945">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="3946" spans="1:2">
@@ -31911,7 +31911,7 @@
         <v>3946</v>
       </c>
       <c r="B3946">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3947" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31927,7 +31927,7 @@
         <v>3948</v>
       </c>
       <c r="B3948">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -31943,7 +31943,7 @@
         <v>3950</v>
       </c>
       <c r="B3950">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="3951" spans="1:2">
@@ -31951,7 +31951,7 @@
         <v>3951</v>
       </c>
       <c r="B3951">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="3952" spans="1:2">
@@ -32095,7 +32095,7 @@
         <v>3969</v>
       </c>
       <c r="B3969">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="3970" spans="1:2">
@@ -32103,7 +32103,7 @@
         <v>3970</v>
       </c>
       <c r="B3970">
-        <v>1.971359</v>
+        <v>3.834236523192761</v>
       </c>
     </row>
     <row r="3971" spans="1:2">
@@ -32111,7 +32111,7 @@
         <v>3971</v>
       </c>
       <c r="B3971">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3972" spans="1:2">
@@ -32119,7 +32119,7 @@
         <v>3972</v>
       </c>
       <c r="B3972">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3973" spans="1:2">
@@ -32127,7 +32127,7 @@
         <v>3973</v>
       </c>
       <c r="B3973">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3974" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>1.971359</v>
+        <v>4.960970784243298</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32319,7 +32319,7 @@
         <v>3997</v>
       </c>
       <c r="B3997">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="3998" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -32679,7 +32679,7 @@
         <v>4042</v>
       </c>
       <c r="B4042">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4043" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32695,7 +32695,7 @@
         <v>4044</v>
       </c>
       <c r="B4044">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4045" spans="1:2">
@@ -32703,7 +32703,7 @@
         <v>4045</v>
       </c>
       <c r="B4045">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4046" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32719,7 +32719,7 @@
         <v>4047</v>
       </c>
       <c r="B4047">
-        <v>2.276553</v>
+        <v>4.049525126316896</v>
       </c>
     </row>
     <row r="4048" spans="1:2">
@@ -32863,7 +32863,7 @@
         <v>4065</v>
       </c>
       <c r="B4065">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4066" spans="1:2">
@@ -32871,7 +32871,7 @@
         <v>4066</v>
       </c>
       <c r="B4066">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -32879,7 +32879,7 @@
         <v>4067</v>
       </c>
       <c r="B4067">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4068" spans="1:2">
@@ -32887,7 +32887,7 @@
         <v>4068</v>
       </c>
       <c r="B4068">
-        <v>1.971359</v>
+        <v>4.194220894425913</v>
       </c>
     </row>
     <row r="4069" spans="1:2">
@@ -32895,7 +32895,7 @@
         <v>4069</v>
       </c>
       <c r="B4069">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4070" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>1.971359</v>
+        <v>3.646654761297001</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>1.971359</v>
+        <v>4.478644691380725</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -33055,7 +33055,7 @@
         <v>4089</v>
       </c>
       <c r="B4089">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4090" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33071,7 +33071,7 @@
         <v>4091</v>
       </c>
       <c r="B4091">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4092" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33087,7 +33087,7 @@
         <v>4093</v>
       </c>
       <c r="B4093">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4094" spans="1:2">
@@ -33095,7 +33095,7 @@
         <v>4094</v>
       </c>
       <c r="B4094">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4095" spans="1:2">
@@ -33103,7 +33103,7 @@
         <v>4095</v>
       </c>
       <c r="B4095">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4096" spans="1:2">
@@ -33247,7 +33247,7 @@
         <v>4113</v>
       </c>
       <c r="B4113">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4114" spans="1:2">
@@ -33255,7 +33255,7 @@
         <v>4114</v>
       </c>
       <c r="B4114">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4115" spans="1:2">
@@ -33263,7 +33263,7 @@
         <v>4115</v>
       </c>
       <c r="B4115">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4116" spans="1:2">
@@ -33271,7 +33271,7 @@
         <v>4116</v>
       </c>
       <c r="B4116">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4117" spans="1:2">
@@ -33279,7 +33279,7 @@
         <v>4117</v>
       </c>
       <c r="B4117">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4118" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33439,7 +33439,7 @@
         <v>4137</v>
       </c>
       <c r="B4137">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4138" spans="1:2">
@@ -33447,7 +33447,7 @@
         <v>4138</v>
       </c>
       <c r="B4138">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4139" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -33463,7 +33463,7 @@
         <v>4140</v>
       </c>
       <c r="B4140">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4141" spans="1:2">
@@ -33471,7 +33471,7 @@
         <v>4141</v>
       </c>
       <c r="B4141">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4142" spans="1:2">
@@ -33479,7 +33479,7 @@
         <v>4142</v>
       </c>
       <c r="B4142">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4143" spans="1:2">
@@ -33487,7 +33487,7 @@
         <v>4143</v>
       </c>
       <c r="B4143">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4144" spans="1:2">
@@ -34015,7 +34015,7 @@
         <v>4209</v>
       </c>
       <c r="B4209">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4210" spans="1:2">
@@ -34023,7 +34023,7 @@
         <v>4210</v>
       </c>
       <c r="B4210">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4211" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34039,7 +34039,7 @@
         <v>4212</v>
       </c>
       <c r="B4212">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4213" spans="1:2">
@@ -34047,7 +34047,7 @@
         <v>4213</v>
       </c>
       <c r="B4213">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4214" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34063,7 +34063,7 @@
         <v>4215</v>
       </c>
       <c r="B4215">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4216" spans="1:2">
@@ -34207,7 +34207,7 @@
         <v>4233</v>
       </c>
       <c r="B4233">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4234" spans="1:2">
@@ -34215,7 +34215,7 @@
         <v>4234</v>
       </c>
       <c r="B4234">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4235" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34239,7 +34239,7 @@
         <v>4237</v>
       </c>
       <c r="B4237">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4238" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34255,7 +34255,7 @@
         <v>4239</v>
       </c>
       <c r="B4239">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4240" spans="1:2">
@@ -34399,7 +34399,7 @@
         <v>4257</v>
       </c>
       <c r="B4257">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4258" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34431,7 +34431,7 @@
         <v>4261</v>
       </c>
       <c r="B4261">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4262" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34607,7 +34607,7 @@
         <v>4283</v>
       </c>
       <c r="B4283">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4284" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34631,7 +34631,7 @@
         <v>4286</v>
       </c>
       <c r="B4286">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4287" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34783,7 +34783,7 @@
         <v>4305</v>
       </c>
       <c r="B4305">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4306" spans="1:2">
@@ -34791,7 +34791,7 @@
         <v>4306</v>
       </c>
       <c r="B4306">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4307" spans="1:2">
@@ -34799,7 +34799,7 @@
         <v>4307</v>
       </c>
       <c r="B4307">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4308" spans="1:2">
@@ -34807,7 +34807,7 @@
         <v>4308</v>
       </c>
       <c r="B4308">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -34815,7 +34815,7 @@
         <v>4309</v>
       </c>
       <c r="B4309">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4310" spans="1:2">
@@ -34823,7 +34823,7 @@
         <v>4310</v>
       </c>
       <c r="B4310">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4311" spans="1:2">
@@ -34831,7 +34831,7 @@
         <v>4311</v>
       </c>
       <c r="B4311">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4312" spans="1:2">
@@ -35359,7 +35359,7 @@
         <v>4377</v>
       </c>
       <c r="B4377">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35367,7 +35367,7 @@
         <v>4378</v>
       </c>
       <c r="B4378">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4379" spans="1:2">
@@ -35375,7 +35375,7 @@
         <v>4379</v>
       </c>
       <c r="B4379">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4380" spans="1:2">
@@ -35383,7 +35383,7 @@
         <v>4380</v>
       </c>
       <c r="B4380">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35407,7 +35407,7 @@
         <v>4383</v>
       </c>
       <c r="B4383">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4384" spans="1:2">
@@ -35551,7 +35551,7 @@
         <v>4401</v>
       </c>
       <c r="B4401">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4402" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35575,7 +35575,7 @@
         <v>4404</v>
       </c>
       <c r="B4404">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35583,7 +35583,7 @@
         <v>4405</v>
       </c>
       <c r="B4405">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35599,7 +35599,7 @@
         <v>4407</v>
       </c>
       <c r="B4407">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4408" spans="1:2">
@@ -35935,7 +35935,7 @@
         <v>4449</v>
       </c>
       <c r="B4449">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4450" spans="1:2">
@@ -35943,7 +35943,7 @@
         <v>4450</v>
       </c>
       <c r="B4450">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36127,7 +36127,7 @@
         <v>4473</v>
       </c>
       <c r="B4473">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4474" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36143,7 +36143,7 @@
         <v>4475</v>
       </c>
       <c r="B4475">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36175,7 +36175,7 @@
         <v>4479</v>
       </c>
       <c r="B4479">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4480" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36359,7 +36359,7 @@
         <v>4502</v>
       </c>
       <c r="B4502">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4503" spans="1:2">
@@ -36703,7 +36703,7 @@
         <v>4545</v>
       </c>
       <c r="B4545">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4546" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36719,7 +36719,7 @@
         <v>4547</v>
       </c>
       <c r="B4547">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4548" spans="1:2">
@@ -36727,7 +36727,7 @@
         <v>4548</v>
       </c>
       <c r="B4548">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -36735,7 +36735,7 @@
         <v>4549</v>
       </c>
       <c r="B4549">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4550" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36751,7 +36751,7 @@
         <v>4551</v>
       </c>
       <c r="B4551">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4552" spans="1:2">
@@ -36895,7 +36895,7 @@
         <v>4569</v>
       </c>
       <c r="B4569">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4570" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -36919,7 +36919,7 @@
         <v>4572</v>
       </c>
       <c r="B4572">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4573" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36943,7 +36943,7 @@
         <v>4575</v>
       </c>
       <c r="B4575">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4576" spans="1:2">
@@ -37087,7 +37087,7 @@
         <v>4593</v>
       </c>
       <c r="B4593">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4594" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37103,7 +37103,7 @@
         <v>4595</v>
       </c>
       <c r="B4595">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4596" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37295,7 +37295,7 @@
         <v>4619</v>
       </c>
       <c r="B4619">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4620" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37311,7 +37311,7 @@
         <v>4621</v>
       </c>
       <c r="B4621">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4622" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37471,7 +37471,7 @@
         <v>4641</v>
       </c>
       <c r="B4641">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4642" spans="1:2">
@@ -37479,7 +37479,7 @@
         <v>4642</v>
       </c>
       <c r="B4642">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4643" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37503,7 +37503,7 @@
         <v>4645</v>
       </c>
       <c r="B4645">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4646" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -37519,7 +37519,7 @@
         <v>4647</v>
       </c>
       <c r="B4647">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4648" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38055,7 +38055,7 @@
         <v>4714</v>
       </c>
       <c r="B4714">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4715" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38071,7 +38071,7 @@
         <v>4716</v>
       </c>
       <c r="B4716">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4717" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38087,7 +38087,7 @@
         <v>4718</v>
       </c>
       <c r="B4718">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4719" spans="1:2">
@@ -38095,7 +38095,7 @@
         <v>4719</v>
       </c>
       <c r="B4719">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4720" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38271,7 +38271,7 @@
         <v>4741</v>
       </c>
       <c r="B4741">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4742" spans="1:2">
@@ -38279,7 +38279,7 @@
         <v>4742</v>
       </c>
       <c r="B4742">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4743" spans="1:2">
@@ -38287,7 +38287,7 @@
         <v>4743</v>
       </c>
       <c r="B4743">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4744" spans="1:2">
@@ -38431,7 +38431,7 @@
         <v>4761</v>
       </c>
       <c r="B4761">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38447,7 +38447,7 @@
         <v>4763</v>
       </c>
       <c r="B4763">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4764" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>6.260878</v>
+        <v>8.197175763660965</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>4.634874</v>
+        <v>8.700514093800148</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38631,7 +38631,7 @@
         <v>4786</v>
       </c>
       <c r="B4786">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4787" spans="1:2">
@@ -38639,7 +38639,7 @@
         <v>4787</v>
       </c>
       <c r="B4787">
-        <v>6.571177</v>
+        <v>8.961029933585493</v>
       </c>
     </row>
     <row r="4788" spans="1:2">
@@ -38647,7 +38647,7 @@
         <v>4788</v>
       </c>
       <c r="B4788">
-        <v>6.260878</v>
+        <v>11.24242933958413</v>
       </c>
     </row>
     <row r="4789" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>4.634874</v>
+        <v>7.137648041197561</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>3.732354</v>
+        <v>6.737054531804597</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38671,7 +38671,7 @@
         <v>4791</v>
       </c>
       <c r="B4791">
-        <v>2.276553</v>
+        <v>4.904831578277271</v>
       </c>
     </row>
     <row r="4792" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>1.971359</v>
+        <v>4.144363986061405</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>1.971359</v>
+        <v>5.105556040743293</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>1.971359</v>
+        <v>8.391841003050308</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>1.971359</v>
+        <v>9.364489263228039</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>1.971359</v>
+        <v>10.62184558539093</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>1.971359</v>
+        <v>10.38850263317089</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -39023,7 +39023,7 @@
         <v>4835</v>
       </c>
       <c r="B4835">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4836" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39047,7 +39047,7 @@
         <v>4838</v>
       </c>
       <c r="B4838">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4839" spans="1:2">
@@ -39055,7 +39055,7 @@
         <v>4839</v>
       </c>
       <c r="B4839">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4840" spans="1:2">
@@ -39063,7 +39063,7 @@
         <v>4840</v>
       </c>
       <c r="B4840">
-        <v>0.646969</v>
+        <v>2.210286263518866</v>
       </c>
     </row>
     <row r="4841" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>6.279489</v>
+        <v>15.36151465160591</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>6.571177</v>
+        <v>29.32286052618188</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>6.571177</v>
+        <v>37.22872436735379</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39415,7 +39415,7 @@
         <v>4884</v>
       </c>
       <c r="B4884">
-        <v>6.260878</v>
+        <v>39.83662990549308</v>
       </c>
     </row>
     <row r="4885" spans="1:2">
@@ -39423,7 +39423,7 @@
         <v>4885</v>
       </c>
       <c r="B4885">
-        <v>4.634874</v>
+        <v>38.32705640342384</v>
       </c>
     </row>
     <row r="4886" spans="1:2">
@@ -39431,7 +39431,7 @@
         <v>4886</v>
       </c>
       <c r="B4886">
-        <v>3.732354</v>
+        <v>31.25230509438241</v>
       </c>
     </row>
     <row r="4887" spans="1:2">
@@ -39439,7 +39439,7 @@
         <v>4887</v>
       </c>
       <c r="B4887">
-        <v>2.276553</v>
+        <v>19.49447682704093</v>
       </c>
     </row>
     <row r="4888" spans="1:2">
@@ -39447,7 +39447,7 @@
         <v>4888</v>
       </c>
       <c r="B4888">
-        <v>0.646969</v>
+        <v>2.210286263518866</v>
       </c>
     </row>
     <row r="4889" spans="1:2">
@@ -39583,7 +39583,7 @@
         <v>4905</v>
       </c>
       <c r="B4905">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4906" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39599,7 +39599,7 @@
         <v>4907</v>
       </c>
       <c r="B4907">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4908" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>1.971359</v>
+        <v>3.604908031117232</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>1.971359</v>
+        <v>4.859871125356055</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39775,7 +39775,7 @@
         <v>4929</v>
       </c>
       <c r="B4929">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4930" spans="1:2">
@@ -39783,7 +39783,7 @@
         <v>4930</v>
       </c>
       <c r="B4930">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4931" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39799,7 +39799,7 @@
         <v>4932</v>
       </c>
       <c r="B4932">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="4933" spans="1:2">
@@ -39807,7 +39807,7 @@
         <v>4933</v>
       </c>
       <c r="B4933">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -39975,7 +39975,7 @@
         <v>4954</v>
       </c>
       <c r="B4954">
-        <v>6.571177</v>
+        <v>8.672530110205882</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>6.571177</v>
+        <v>9.954899907683034</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>6.260878</v>
+        <v>8.708987398437653</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>4.634874</v>
+        <v>8.063847740797716</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>3.732354</v>
+        <v>7.024970002354173</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>2.276553</v>
+        <v>4.36868569734846</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40159,7 +40159,7 @@
         <v>4977</v>
       </c>
       <c r="B4977">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="4978" spans="1:2">
@@ -40167,7 +40167,7 @@
         <v>4978</v>
       </c>
       <c r="B4978">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40175,7 +40175,7 @@
         <v>4979</v>
       </c>
       <c r="B4979">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4980" spans="1:2">
@@ -40183,7 +40183,7 @@
         <v>4980</v>
       </c>
       <c r="B4980">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4981" spans="1:2">
@@ -40191,7 +40191,7 @@
         <v>4981</v>
       </c>
       <c r="B4981">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4982" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40207,7 +40207,7 @@
         <v>4983</v>
       </c>
       <c r="B4983">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="4984" spans="1:2">
@@ -40735,7 +40735,7 @@
         <v>5049</v>
       </c>
       <c r="B5049">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40751,7 +40751,7 @@
         <v>5051</v>
       </c>
       <c r="B5051">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5052" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40767,7 +40767,7 @@
         <v>5053</v>
       </c>
       <c r="B5053">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5054" spans="1:2">
@@ -40775,7 +40775,7 @@
         <v>5054</v>
       </c>
       <c r="B5054">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5055" spans="1:2">
@@ -40783,7 +40783,7 @@
         <v>5055</v>
       </c>
       <c r="B5055">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5056" spans="1:2">
@@ -40927,7 +40927,7 @@
         <v>5073</v>
       </c>
       <c r="B5073">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="5074" spans="1:2">
@@ -40935,7 +40935,7 @@
         <v>5074</v>
       </c>
       <c r="B5074">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5075" spans="1:2">
@@ -40943,7 +40943,7 @@
         <v>5075</v>
       </c>
       <c r="B5075">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5076" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -40959,7 +40959,7 @@
         <v>5077</v>
       </c>
       <c r="B5077">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5078" spans="1:2">
@@ -40967,7 +40967,7 @@
         <v>5078</v>
       </c>
       <c r="B5078">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5079" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -41119,7 +41119,7 @@
         <v>5097</v>
       </c>
       <c r="B5097">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5098" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41327,7 +41327,7 @@
         <v>5123</v>
       </c>
       <c r="B5123">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41335,7 +41335,7 @@
         <v>5124</v>
       </c>
       <c r="B5124">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5125" spans="1:2">
@@ -41343,7 +41343,7 @@
         <v>5125</v>
       </c>
       <c r="B5125">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5126" spans="1:2">
@@ -41351,7 +41351,7 @@
         <v>5126</v>
       </c>
       <c r="B5126">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5127" spans="1:2">
@@ -41359,7 +41359,7 @@
         <v>5127</v>
       </c>
       <c r="B5127">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5128" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41511,7 +41511,7 @@
         <v>5146</v>
       </c>
       <c r="B5146">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5147" spans="1:2">
@@ -41519,7 +41519,7 @@
         <v>5147</v>
       </c>
       <c r="B5147">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5148" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -41543,7 +41543,7 @@
         <v>5150</v>
       </c>
       <c r="B5150">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5151" spans="1:2">
@@ -41551,7 +41551,7 @@
         <v>5151</v>
       </c>
       <c r="B5151">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5152" spans="1:2">
@@ -42095,7 +42095,7 @@
         <v>5219</v>
       </c>
       <c r="B5219">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5220" spans="1:2">
@@ -42103,7 +42103,7 @@
         <v>5220</v>
       </c>
       <c r="B5220">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5221" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42119,7 +42119,7 @@
         <v>5222</v>
       </c>
       <c r="B5222">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5223" spans="1:2">
@@ -42127,7 +42127,7 @@
         <v>5223</v>
       </c>
       <c r="B5223">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5224" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42287,7 +42287,7 @@
         <v>5243</v>
       </c>
       <c r="B5243">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5244" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42303,7 +42303,7 @@
         <v>5245</v>
       </c>
       <c r="B5245">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5246" spans="1:2">
@@ -42311,7 +42311,7 @@
         <v>5246</v>
       </c>
       <c r="B5246">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5247" spans="1:2">
@@ -42319,7 +42319,7 @@
         <v>5247</v>
       </c>
       <c r="B5247">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5248" spans="1:2">
@@ -42463,7 +42463,7 @@
         <v>5265</v>
       </c>
       <c r="B5265">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5266" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42479,7 +42479,7 @@
         <v>5267</v>
       </c>
       <c r="B5267">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5268" spans="1:2">
@@ -42487,7 +42487,7 @@
         <v>5268</v>
       </c>
       <c r="B5268">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5269" spans="1:2">
@@ -42495,7 +42495,7 @@
         <v>5269</v>
       </c>
       <c r="B5269">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5270" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42663,7 +42663,7 @@
         <v>5290</v>
       </c>
       <c r="B5290">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5291" spans="1:2">
@@ -42671,7 +42671,7 @@
         <v>5291</v>
       </c>
       <c r="B5291">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5292" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -42687,7 +42687,7 @@
         <v>5293</v>
       </c>
       <c r="B5293">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5294" spans="1:2">
@@ -42695,7 +42695,7 @@
         <v>5294</v>
       </c>
       <c r="B5294">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5295" spans="1:2">
@@ -42703,7 +42703,7 @@
         <v>5295</v>
       </c>
       <c r="B5295">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5296" spans="1:2">
@@ -42847,7 +42847,7 @@
         <v>5313</v>
       </c>
       <c r="B5313">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="5314" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -42863,7 +42863,7 @@
         <v>5315</v>
       </c>
       <c r="B5315">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5316" spans="1:2">
@@ -42871,7 +42871,7 @@
         <v>5316</v>
       </c>
       <c r="B5316">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5317" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -42887,7 +42887,7 @@
         <v>5318</v>
       </c>
       <c r="B5318">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5319" spans="1:2">
@@ -42895,7 +42895,7 @@
         <v>5319</v>
       </c>
       <c r="B5319">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5320" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43439,7 +43439,7 @@
         <v>5387</v>
       </c>
       <c r="B5387">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5388" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43455,7 +43455,7 @@
         <v>5389</v>
       </c>
       <c r="B5389">
-        <v>4.634874</v>
+        <v>6.973343953841397</v>
       </c>
     </row>
     <row r="5390" spans="1:2">
@@ -43463,7 +43463,7 @@
         <v>5390</v>
       </c>
       <c r="B5390">
-        <v>3.732354</v>
+        <v>5.474703298907669</v>
       </c>
     </row>
     <row r="5391" spans="1:2">
@@ -43471,7 +43471,7 @@
         <v>5391</v>
       </c>
       <c r="B5391">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5392" spans="1:2">
@@ -43615,7 +43615,7 @@
         <v>5409</v>
       </c>
       <c r="B5409">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="5410" spans="1:2">
@@ -43623,7 +43623,7 @@
         <v>5410</v>
       </c>
       <c r="B5410">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5411" spans="1:2">
@@ -43631,7 +43631,7 @@
         <v>5411</v>
       </c>
       <c r="B5411">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5412" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43655,7 +43655,7 @@
         <v>5414</v>
       </c>
       <c r="B5414">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5415" spans="1:2">
@@ -43663,7 +43663,7 @@
         <v>5415</v>
       </c>
       <c r="B5415">
-        <v>1.971359</v>
+        <v>3.949811831054208</v>
       </c>
     </row>
     <row r="5416" spans="1:2">
@@ -43807,7 +43807,7 @@
         <v>5433</v>
       </c>
       <c r="B5433">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5434" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43823,7 +43823,7 @@
         <v>5435</v>
       </c>
       <c r="B5435">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5436" spans="1:2">
@@ -43831,7 +43831,7 @@
         <v>5436</v>
       </c>
       <c r="B5436">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5437" spans="1:2">
@@ -43839,7 +43839,7 @@
         <v>5437</v>
       </c>
       <c r="B5437">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5438" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -43855,7 +43855,7 @@
         <v>5439</v>
       </c>
       <c r="B5439">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5440" spans="1:2">
@@ -43999,7 +43999,7 @@
         <v>5457</v>
       </c>
       <c r="B5457">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5458" spans="1:2">
@@ -44007,7 +44007,7 @@
         <v>5458</v>
       </c>
       <c r="B5458">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5459" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44023,7 +44023,7 @@
         <v>5460</v>
       </c>
       <c r="B5460">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5461" spans="1:2">
@@ -44031,7 +44031,7 @@
         <v>5461</v>
       </c>
       <c r="B5461">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5462" spans="1:2">
@@ -44039,7 +44039,7 @@
         <v>5462</v>
       </c>
       <c r="B5462">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5463" spans="1:2">
@@ -44047,7 +44047,7 @@
         <v>5463</v>
       </c>
       <c r="B5463">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5464" spans="1:2">
@@ -44215,7 +44215,7 @@
         <v>5484</v>
       </c>
       <c r="B5484">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5485" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44231,7 +44231,7 @@
         <v>5486</v>
       </c>
       <c r="B5486">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5487" spans="1:2">
@@ -44239,7 +44239,7 @@
         <v>5487</v>
       </c>
       <c r="B5487">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5488" spans="1:2">
@@ -44767,7 +44767,7 @@
         <v>5553</v>
       </c>
       <c r="B5553">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5554" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -44799,7 +44799,7 @@
         <v>5557</v>
       </c>
       <c r="B5557">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5558" spans="1:2">
@@ -44807,7 +44807,7 @@
         <v>5558</v>
       </c>
       <c r="B5558">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5559" spans="1:2">
@@ -44815,7 +44815,7 @@
         <v>5559</v>
       </c>
       <c r="B5559">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5560" spans="1:2">
@@ -44959,7 +44959,7 @@
         <v>5577</v>
       </c>
       <c r="B5577">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="5578" spans="1:2">
@@ -44967,7 +44967,7 @@
         <v>5578</v>
       </c>
       <c r="B5578">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5579" spans="1:2">
@@ -44975,7 +44975,7 @@
         <v>5579</v>
       </c>
       <c r="B5579">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5580" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -44999,7 +44999,7 @@
         <v>5582</v>
       </c>
       <c r="B5582">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5583" spans="1:2">
@@ -45007,7 +45007,7 @@
         <v>5583</v>
       </c>
       <c r="B5583">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5584" spans="1:2">
@@ -45151,7 +45151,7 @@
         <v>5601</v>
       </c>
       <c r="B5601">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5602" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45167,7 +45167,7 @@
         <v>5603</v>
       </c>
       <c r="B5603">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5604" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45199,7 +45199,7 @@
         <v>5607</v>
       </c>
       <c r="B5607">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5608" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45351,7 +45351,7 @@
         <v>5626</v>
       </c>
       <c r="B5626">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5627" spans="1:2">
@@ -45359,7 +45359,7 @@
         <v>5627</v>
       </c>
       <c r="B5627">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5628" spans="1:2">
@@ -45367,7 +45367,7 @@
         <v>5628</v>
       </c>
       <c r="B5628">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5629" spans="1:2">
@@ -45375,7 +45375,7 @@
         <v>5629</v>
       </c>
       <c r="B5629">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5630" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45543,7 +45543,7 @@
         <v>5650</v>
       </c>
       <c r="B5650">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5651" spans="1:2">
@@ -45551,7 +45551,7 @@
         <v>5651</v>
       </c>
       <c r="B5651">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5652" spans="1:2">
@@ -45559,7 +45559,7 @@
         <v>5652</v>
       </c>
       <c r="B5652">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5653" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45583,7 +45583,7 @@
         <v>5655</v>
       </c>
       <c r="B5655">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5656" spans="1:2">
@@ -46111,7 +46111,7 @@
         <v>5721</v>
       </c>
       <c r="B5721">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5722" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46127,7 +46127,7 @@
         <v>5723</v>
       </c>
       <c r="B5723">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5724" spans="1:2">
@@ -46135,7 +46135,7 @@
         <v>5724</v>
       </c>
       <c r="B5724">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5725" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46159,7 +46159,7 @@
         <v>5727</v>
       </c>
       <c r="B5727">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5728" spans="1:2">
@@ -46303,7 +46303,7 @@
         <v>5745</v>
       </c>
       <c r="B5745">
-        <v>1.096292</v>
+        <v>2.659609263518866</v>
       </c>
     </row>
     <row r="5746" spans="1:2">
@@ -46311,7 +46311,7 @@
         <v>5746</v>
       </c>
       <c r="B5746">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5747" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46327,7 +46327,7 @@
         <v>5748</v>
       </c>
       <c r="B5748">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5749" spans="1:2">
@@ -46335,7 +46335,7 @@
         <v>5749</v>
       </c>
       <c r="B5749">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5750" spans="1:2">
@@ -46343,7 +46343,7 @@
         <v>5750</v>
       </c>
       <c r="B5750">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5751" spans="1:2">
@@ -46351,7 +46351,7 @@
         <v>5751</v>
       </c>
       <c r="B5751">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5752" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46503,7 +46503,7 @@
         <v>5770</v>
       </c>
       <c r="B5770">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5771" spans="1:2">
@@ -46511,7 +46511,7 @@
         <v>5771</v>
       </c>
       <c r="B5771">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5772" spans="1:2">
@@ -46519,7 +46519,7 @@
         <v>5772</v>
       </c>
       <c r="B5772">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5773" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46535,7 +46535,7 @@
         <v>5774</v>
       </c>
       <c r="B5774">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5775" spans="1:2">
@@ -46543,7 +46543,7 @@
         <v>5775</v>
       </c>
       <c r="B5775">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5776" spans="1:2">
@@ -46687,7 +46687,7 @@
         <v>5793</v>
       </c>
       <c r="B5793">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5794" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46727,7 +46727,7 @@
         <v>5798</v>
       </c>
       <c r="B5798">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5799" spans="1:2">
@@ -46735,7 +46735,7 @@
         <v>5799</v>
       </c>
       <c r="B5799">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5800" spans="1:2">
@@ -46887,7 +46887,7 @@
         <v>5818</v>
       </c>
       <c r="B5818">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5819" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -46919,7 +46919,7 @@
         <v>5822</v>
       </c>
       <c r="B5822">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5823" spans="1:2">
@@ -46927,7 +46927,7 @@
         <v>5823</v>
       </c>
       <c r="B5823">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5824" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47679,7 +47679,7 @@
         <v>5917</v>
       </c>
       <c r="B5917">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5918" spans="1:2">
@@ -47687,7 +47687,7 @@
         <v>5918</v>
       </c>
       <c r="B5918">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5919" spans="1:2">
@@ -47695,7 +47695,7 @@
         <v>5919</v>
       </c>
       <c r="B5919">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5920" spans="1:2">
@@ -47839,7 +47839,7 @@
         <v>5937</v>
       </c>
       <c r="B5937">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5938" spans="1:2">
@@ -47847,7 +47847,7 @@
         <v>5938</v>
       </c>
       <c r="B5938">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5939" spans="1:2">
@@ -47855,7 +47855,7 @@
         <v>5939</v>
       </c>
       <c r="B5939">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5940" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -47871,7 +47871,7 @@
         <v>5941</v>
       </c>
       <c r="B5941">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5942" spans="1:2">
@@ -47879,7 +47879,7 @@
         <v>5942</v>
       </c>
       <c r="B5942">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5943" spans="1:2">
@@ -47887,7 +47887,7 @@
         <v>5943</v>
       </c>
       <c r="B5943">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5944" spans="1:2">
@@ -48031,7 +48031,7 @@
         <v>5961</v>
       </c>
       <c r="B5961">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="5962" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48047,7 +48047,7 @@
         <v>5963</v>
       </c>
       <c r="B5963">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="5964" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48063,7 +48063,7 @@
         <v>5965</v>
       </c>
       <c r="B5965">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="5966" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48239,7 +48239,7 @@
         <v>5987</v>
       </c>
       <c r="B5987">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5988" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48799,7 +48799,7 @@
         <v>6057</v>
       </c>
       <c r="B6057">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="6058" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -48815,7 +48815,7 @@
         <v>6059</v>
       </c>
       <c r="B6059">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6060" spans="1:2">
@@ -48823,7 +48823,7 @@
         <v>6060</v>
       </c>
       <c r="B6060">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="6061" spans="1:2">
@@ -48831,7 +48831,7 @@
         <v>6061</v>
       </c>
       <c r="B6061">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="6062" spans="1:2">
@@ -48839,7 +48839,7 @@
         <v>6062</v>
       </c>
       <c r="B6062">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6063" spans="1:2">
@@ -48847,7 +48847,7 @@
         <v>6063</v>
       </c>
       <c r="B6063">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6064" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49007,7 +49007,7 @@
         <v>6083</v>
       </c>
       <c r="B6083">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6084" spans="1:2">
@@ -49015,7 +49015,7 @@
         <v>6084</v>
       </c>
       <c r="B6084">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6085" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49031,7 +49031,7 @@
         <v>6086</v>
       </c>
       <c r="B6086">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6087" spans="1:2">
@@ -49039,7 +49039,7 @@
         <v>6087</v>
       </c>
       <c r="B6087">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6088" spans="1:2">
@@ -49183,7 +49183,7 @@
         <v>6105</v>
       </c>
       <c r="B6105">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="6106" spans="1:2">
@@ -49191,7 +49191,7 @@
         <v>6106</v>
       </c>
       <c r="B6106">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6107" spans="1:2">
@@ -49199,7 +49199,7 @@
         <v>6107</v>
       </c>
       <c r="B6107">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6108" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49215,7 +49215,7 @@
         <v>6109</v>
       </c>
       <c r="B6109">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="6110" spans="1:2">
@@ -49223,7 +49223,7 @@
         <v>6110</v>
       </c>
       <c r="B6110">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6111" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49375,7 +49375,7 @@
         <v>6129</v>
       </c>
       <c r="B6129">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="6130" spans="1:2">
@@ -49383,7 +49383,7 @@
         <v>6130</v>
       </c>
       <c r="B6130">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6131" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49399,7 +49399,7 @@
         <v>6132</v>
       </c>
       <c r="B6132">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="6133" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49415,7 +49415,7 @@
         <v>6134</v>
       </c>
       <c r="B6134">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6135" spans="1:2">
@@ -49423,7 +49423,7 @@
         <v>6135</v>
       </c>
       <c r="B6135">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6136" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49591,7 +49591,7 @@
         <v>6156</v>
       </c>
       <c r="B6156">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6157" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49607,7 +49607,7 @@
         <v>6158</v>
       </c>
       <c r="B6158">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6159" spans="1:2">
@@ -49615,7 +49615,7 @@
         <v>6159</v>
       </c>
       <c r="B6159">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6160" spans="1:2">
@@ -50143,7 +50143,7 @@
         <v>6225</v>
       </c>
       <c r="B6225">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="6226" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50159,7 +50159,7 @@
         <v>6227</v>
       </c>
       <c r="B6227">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6228" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50175,7 +50175,7 @@
         <v>6229</v>
       </c>
       <c r="B6229">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="6230" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50343,7 +50343,7 @@
         <v>6250</v>
       </c>
       <c r="B6250">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6251" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50375,7 +50375,7 @@
         <v>6254</v>
       </c>
       <c r="B6254">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6255" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -50527,7 +50527,7 @@
         <v>6273</v>
       </c>
       <c r="B6273">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="6274" spans="1:2">
@@ -50535,7 +50535,7 @@
         <v>6274</v>
       </c>
       <c r="B6274">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6275" spans="1:2">
@@ -50543,7 +50543,7 @@
         <v>6275</v>
       </c>
       <c r="B6275">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6276" spans="1:2">
@@ -50551,7 +50551,7 @@
         <v>6276</v>
       </c>
       <c r="B6276">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="6277" spans="1:2">
@@ -50559,7 +50559,7 @@
         <v>6277</v>
       </c>
       <c r="B6277">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="6278" spans="1:2">
@@ -50567,7 +50567,7 @@
         <v>6278</v>
       </c>
       <c r="B6278">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6279" spans="1:2">
@@ -50575,7 +50575,7 @@
         <v>6279</v>
       </c>
       <c r="B6279">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6280" spans="1:2">
@@ -50719,7 +50719,7 @@
         <v>6297</v>
       </c>
       <c r="B6297">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="6298" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -51871,7 +51871,7 @@
         <v>6441</v>
       </c>
       <c r="B6441">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="6442" spans="1:2">
@@ -51911,7 +51911,7 @@
         <v>6446</v>
       </c>
       <c r="B6446">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6447" spans="1:2">
@@ -51919,7 +51919,7 @@
         <v>6447</v>
       </c>
       <c r="B6447">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6448" spans="1:2">
@@ -52103,7 +52103,7 @@
         <v>6470</v>
       </c>
       <c r="B6470">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6471" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -53223,7 +53223,7 @@
         <v>6610</v>
       </c>
       <c r="B6610">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6611" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53255,7 +53255,7 @@
         <v>6614</v>
       </c>
       <c r="B6614">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6615" spans="1:2">
@@ -53263,7 +53263,7 @@
         <v>6615</v>
       </c>
       <c r="B6615">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6616" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53423,7 +53423,7 @@
         <v>6635</v>
       </c>
       <c r="B6635">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="6636" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53447,7 +53447,7 @@
         <v>6638</v>
       </c>
       <c r="B6638">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6639" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53639,7 +53639,7 @@
         <v>6662</v>
       </c>
       <c r="B6662">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6663" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>1.971359</v>
+        <v>3.534676263518866</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -54783,7 +54783,7 @@
         <v>6805</v>
       </c>
       <c r="B6805">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="6806" spans="1:2">
@@ -54791,7 +54791,7 @@
         <v>6806</v>
       </c>
       <c r="B6806">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="6807" spans="1:2">
@@ -54799,7 +54799,7 @@
         <v>6807</v>
       </c>
       <c r="B6807">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6808" spans="1:2">
@@ -55567,7 +55567,7 @@
         <v>6903</v>
       </c>
       <c r="B6903">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="6904" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56895,7 +56895,7 @@
         <v>7069</v>
       </c>
       <c r="B7069">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="7070" spans="1:2">
@@ -56903,7 +56903,7 @@
         <v>7070</v>
       </c>
       <c r="B7070">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="7071" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57279,7 +57279,7 @@
         <v>7117</v>
       </c>
       <c r="B7117">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="7118" spans="1:2">
@@ -57287,7 +57287,7 @@
         <v>7118</v>
       </c>
       <c r="B7118">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="7119" spans="1:2">
@@ -57295,7 +57295,7 @@
         <v>7119</v>
       </c>
       <c r="B7119">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="7120" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>6.279489</v>
+        <v>7.842806263518866</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57455,7 +57455,7 @@
         <v>7139</v>
       </c>
       <c r="B7139">
-        <v>6.571177</v>
+        <v>8.134494263518867</v>
       </c>
     </row>
     <row r="7140" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>6.260878</v>
+        <v>7.824195263518866</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57471,7 +57471,7 @@
         <v>7141</v>
       </c>
       <c r="B7141">
-        <v>4.634874</v>
+        <v>6.198191263518866</v>
       </c>
     </row>
     <row r="7142" spans="1:2">
@@ -57479,7 +57479,7 @@
         <v>7142</v>
       </c>
       <c r="B7142">
-        <v>3.732354</v>
+        <v>5.295671263518866</v>
       </c>
     </row>
     <row r="7143" spans="1:2">
@@ -57487,7 +57487,7 @@
         <v>7143</v>
       </c>
       <c r="B7143">
-        <v>2.276553</v>
+        <v>3.839870263518866</v>
       </c>
     </row>
     <row r="7144" spans="1:2">
